--- a/人行货币信贷报表与EAST对应表抽取分析/18-信用证开立报文.xlsx
+++ b/人行货币信贷报表与EAST对应表抽取分析/18-信用证开立报文.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>EAST对应字段</t>
+  </si>
+  <si>
+    <t>二次分析</t>
   </si>
   <si>
     <t>数据日期</t>
@@ -71,6 +74,9 @@
     <t>字段mapping处理</t>
   </si>
   <si>
+    <t>与EAST金融许可证号标准不同，建议mapping 【金融机构信息补充表】</t>
+  </si>
+  <si>
     <t>信用证编码</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
   </si>
   <si>
     <t>通过信用证合约编号关联对公信贷业务借据</t>
+  </si>
+  <si>
+    <t>建议关联表外授信业务.信贷合同号</t>
   </si>
   <si>
     <t>开证申请人名称</t>
@@ -145,8 +154,36 @@
     <t>证件类别/统一社会信用代码</t>
   </si>
   <si>
-    <t>通过信用证合约编号关联对公客户/个人基础信息
+    <r>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信用证合约编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信用证申请人编号关联对公客户/个人基础信息
 字段mapping处理</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.检索EAST数据只有对公客户
+2.通过信用证申请人编号关联对公客户.统一社会信用代码，可得证件号码，但EAST该字段填报有可能为统一社会信用代码、组织机构代码等，不太规范
+</t>
   </si>
   <si>
     <t>开证申请人代码</t>
@@ -158,6 +195,9 @@
   </si>
   <si>
     <t>证件号码/统一社会信用</t>
+  </si>
+  <si>
+    <t>检索EAST数据只有对公客户</t>
   </si>
   <si>
     <t>开证申请人经济成分</t>
@@ -229,6 +269,32 @@
 3.值域：0000-01-01到9999-12-31</t>
   </si>
   <si>
+    <r>
+      <t>通过信用证合约编号关联</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对公信贷业务借据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信用证明细信息表</t>
+    </r>
+  </si>
+  <si>
     <t>信用证到期日期</t>
   </si>
   <si>
@@ -288,10 +354,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,9 +386,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,23 +490,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,111 +522,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,19 +564,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +708,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,139 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,33 +854,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -821,26 +875,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,6 +913,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -876,10 +956,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,142 +968,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,6 +1145,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1420,13 +1503,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.81666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.025" style="2" customWidth="1"/>
@@ -1434,11 +1517,11 @@
     <col min="4" max="4" width="80.9083333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.3" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.6333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.8166666666667" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.725" style="2"/>
+    <col min="7" max="8" width="31.8166666666667" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.725" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1460,347 +1543,373 @@
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.25" spans="1:7">
+    <row r="2" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H2" s="9"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="41.25" spans="1:7">
+    <row r="3" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="54.75" spans="1:7">
+    <row r="4" s="2" customFormat="1" ht="54.75" spans="1:8">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H4" s="9"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="81.75" spans="1:7">
+    <row r="5" s="2" customFormat="1" ht="81.75" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="176.25" spans="1:7">
+    <row r="6" s="2" customFormat="1" ht="176.25" spans="1:8">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H6" s="9"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="95.25" spans="1:7">
+    <row r="7" s="2" customFormat="1" ht="95.25" spans="1:8">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="41.25" spans="1:7">
+    <row r="8" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>38</v>
+      <c r="H8" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="284.25" spans="1:7">
+    <row r="9" s="2" customFormat="1" ht="284.25" spans="1:8">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="12"/>
       <c r="G9" s="9" t="s">
-        <v>45</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H9" s="9"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="135.75" spans="1:7">
+    <row r="10" s="2" customFormat="1" ht="135.75" spans="1:8">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H10" s="9"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="54.75" spans="1:7">
+    <row r="11" s="2" customFormat="1" ht="54.75" spans="1:8">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H11" s="9"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="41.25" spans="1:7">
+    <row r="12" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="9"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="41.25" spans="1:7">
+    <row r="13" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="9"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="176.25" spans="1:7">
+    <row r="14" s="2" customFormat="1" ht="176.25" spans="1:8">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="135.75" spans="1:7">
+    <row r="15" s="2" customFormat="1" ht="135.75" spans="1:8">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>64</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H15" s="9"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="54.75" spans="1:7">
+    <row r="16" s="2" customFormat="1" ht="54.75" spans="1:8">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>64</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
